--- a/Arsh-Goyal/DSA Sheet by Arsh (45 Days Plan).xlsx
+++ b/Arsh-Goyal/DSA Sheet by Arsh (45 Days Plan).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="330">
   <si>
     <t>#CrackYourInternship Challenge</t>
   </si>
@@ -1517,8 +1517,8 @@
   </sheetPr>
   <dimension ref="A1:I340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D189" sqref="D189"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C125" sqref="C125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2828,6 +2828,9 @@
       <c r="B118" s="10" t="s">
         <v>116</v>
       </c>
+      <c r="C118" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="F118" s="26" t="s">
         <v>10</v>
       </c>
@@ -2839,6 +2842,9 @@
       <c r="B119" s="16" t="s">
         <v>117</v>
       </c>
+      <c r="C119" s="23" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="120" spans="1:8" ht="13.8">
       <c r="A120" s="5" t="s">
@@ -2847,6 +2853,9 @@
       <c r="B120" s="16" t="s">
         <v>118</v>
       </c>
+      <c r="C120" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="E120" s="29" t="s">
         <v>10</v>
       </c>
@@ -2858,6 +2867,9 @@
       <c r="B121" s="10" t="s">
         <v>119</v>
       </c>
+      <c r="C121" s="23" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="122" spans="1:8" ht="13.8">
       <c r="A122" s="5" t="s">
@@ -2866,6 +2878,9 @@
       <c r="B122" s="10" t="s">
         <v>120</v>
       </c>
+      <c r="C122" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="G122" s="30" t="s">
         <v>10</v>
       </c>
@@ -2877,6 +2892,9 @@
       <c r="B123" s="7" t="s">
         <v>121</v>
       </c>
+      <c r="C123" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="H123" s="28" t="s">
         <v>10</v>
       </c>
@@ -2888,6 +2906,9 @@
       <c r="B124" s="7" t="s">
         <v>122</v>
       </c>
+      <c r="C124" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="H124" s="28" t="s">
         <v>10</v>
       </c>
@@ -2898,6 +2919,9 @@
       </c>
       <c r="B125" s="7" t="s">
         <v>123</v>
+      </c>
+      <c r="C125" s="23" t="s">
+        <v>314</v>
       </c>
       <c r="F125" s="26" t="s">
         <v>10</v>

--- a/Arsh-Goyal/DSA Sheet by Arsh (45 Days Plan).xlsx
+++ b/Arsh-Goyal/DSA Sheet by Arsh (45 Days Plan).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="330">
   <si>
     <t>#CrackYourInternship Challenge</t>
   </si>
@@ -1517,8 +1517,8 @@
   </sheetPr>
   <dimension ref="A1:I340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C125" sqref="C125"/>
+    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C135" sqref="C135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2953,6 +2953,9 @@
       <c r="B129" s="10" t="s">
         <v>124</v>
       </c>
+      <c r="C129" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="F129" s="26" t="s">
         <v>10</v>
       </c>
@@ -2964,6 +2967,9 @@
       <c r="B130" s="10" t="s">
         <v>125</v>
       </c>
+      <c r="C130" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="F130" s="26" t="s">
         <v>10</v>
       </c>
@@ -2978,6 +2984,9 @@
       <c r="B131" s="10" t="s">
         <v>126</v>
       </c>
+      <c r="C131" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="H131" s="28" t="s">
         <v>10</v>
       </c>
@@ -2989,6 +2998,9 @@
       <c r="B132" s="17" t="s">
         <v>127</v>
       </c>
+      <c r="C132" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="F132" s="26" t="s">
         <v>10</v>
       </c>
@@ -3003,6 +3015,9 @@
       <c r="B133" s="10" t="s">
         <v>128</v>
       </c>
+      <c r="C133" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="E133" s="29" t="s">
         <v>10</v>
       </c>
@@ -3017,6 +3032,9 @@
       <c r="B134" s="18" t="s">
         <v>129</v>
       </c>
+      <c r="C134" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="E134" s="29" t="s">
         <v>10</v>
       </c>
@@ -3030,6 +3048,9 @@
       </c>
       <c r="B135" s="19" t="s">
         <v>130</v>
+      </c>
+      <c r="C135" s="23" t="s">
+        <v>314</v>
       </c>
       <c r="E135" s="29" t="s">
         <v>10</v>

--- a/Arsh-Goyal/DSA Sheet by Arsh (45 Days Plan).xlsx
+++ b/Arsh-Goyal/DSA Sheet by Arsh (45 Days Plan).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="330">
   <si>
     <t>#CrackYourInternship Challenge</t>
   </si>
@@ -1518,7 +1518,7 @@
   <dimension ref="A1:I340"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A117" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C135" sqref="C135"/>
+      <selection activeCell="G118" sqref="G118:G119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3063,6 +3063,9 @@
       <c r="B136" s="10" t="s">
         <v>131</v>
       </c>
+      <c r="C136" s="23" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="137" spans="1:8" ht="13.8">
       <c r="A137" s="5" t="s">
@@ -3071,6 +3074,9 @@
       <c r="B137" s="10" t="s">
         <v>132</v>
       </c>
+      <c r="C137" s="23" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="138" spans="1:8" ht="13.8">
       <c r="A138" s="5" t="s">
@@ -3078,6 +3084,9 @@
       </c>
       <c r="B138" s="7" t="s">
         <v>133</v>
+      </c>
+      <c r="C138" s="23" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="13.8">

--- a/Arsh-Goyal/DSA Sheet by Arsh (45 Days Plan).xlsx
+++ b/Arsh-Goyal/DSA Sheet by Arsh (45 Days Plan).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="330">
   <si>
     <t>#CrackYourInternship Challenge</t>
   </si>
@@ -1517,8 +1517,8 @@
   </sheetPr>
   <dimension ref="A1:I340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G118" sqref="G118:G119"/>
+    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B155" sqref="B155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3096,6 +3096,9 @@
       <c r="B139" s="10" t="s">
         <v>134</v>
       </c>
+      <c r="C139" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="H139" s="28" t="s">
         <v>10</v>
       </c>
@@ -3106,6 +3109,9 @@
       </c>
       <c r="B140" s="7" t="s">
         <v>135</v>
+      </c>
+      <c r="C140" s="23" t="s">
+        <v>314</v>
       </c>
       <c r="F140" s="26" t="s">
         <v>10</v>
@@ -3208,6 +3214,9 @@
       <c r="B152" s="10" t="s">
         <v>144</v>
       </c>
+      <c r="C152" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="H152" s="28" t="s">
         <v>10</v>
       </c>
@@ -3219,6 +3228,9 @@
       <c r="B153" s="10" t="s">
         <v>145</v>
       </c>
+      <c r="C153" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="H153" s="28" t="s">
         <v>10</v>
       </c>
@@ -3229,6 +3241,9 @@
       </c>
       <c r="B154" s="10" t="s">
         <v>146</v>
+      </c>
+      <c r="C154" s="23" t="s">
+        <v>314</v>
       </c>
       <c r="H154" s="28" t="s">
         <v>10</v>

--- a/Arsh-Goyal/DSA Sheet by Arsh (45 Days Plan).xlsx
+++ b/Arsh-Goyal/DSA Sheet by Arsh (45 Days Plan).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="330">
   <si>
     <t>#CrackYourInternship Challenge</t>
   </si>
@@ -1517,8 +1517,8 @@
   </sheetPr>
   <dimension ref="A1:I340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B155" sqref="B155"/>
+    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E165" sqref="E165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3256,6 +3256,9 @@
       <c r="B155" s="10" t="s">
         <v>147</v>
       </c>
+      <c r="C155" s="23" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="156" spans="1:8" ht="13.8">
       <c r="A156" s="5" t="s">
@@ -3264,6 +3267,9 @@
       <c r="B156" s="10" t="s">
         <v>148</v>
       </c>
+      <c r="C156" s="23" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="157" spans="1:8" ht="13.8">
       <c r="A157" s="5" t="s">
@@ -3272,6 +3278,9 @@
       <c r="B157" s="10" t="s">
         <v>149</v>
       </c>
+      <c r="C157" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="D157" s="5" t="s">
         <v>10</v>
       </c>
@@ -3283,6 +3292,9 @@
       <c r="B158" s="10" t="s">
         <v>150</v>
       </c>
+      <c r="C158" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="D158" s="5" t="s">
         <v>10</v>
       </c>
@@ -3294,6 +3306,9 @@
       <c r="B159" s="10" t="s">
         <v>151</v>
       </c>
+      <c r="C159" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="D159" s="5" t="s">
         <v>10</v>
       </c>
@@ -3305,6 +3320,9 @@
       <c r="B160" s="10" t="s">
         <v>152</v>
       </c>
+      <c r="C160" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="F160" s="26" t="s">
         <v>10</v>
       </c>
@@ -3316,6 +3334,9 @@
       <c r="B161" s="10" t="s">
         <v>153</v>
       </c>
+      <c r="C161" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="F161" s="26" t="s">
         <v>10</v>
       </c>
@@ -3327,6 +3348,9 @@
       <c r="B162" s="10" t="s">
         <v>154</v>
       </c>
+      <c r="C162" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="F162" s="26" t="s">
         <v>10</v>
       </c>
@@ -3335,8 +3359,11 @@
       <c r="A163" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B163" s="10" t="s">
+      <c r="B163" s="24" t="s">
         <v>155</v>
+      </c>
+      <c r="C163" s="23" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="13.8">

--- a/Arsh-Goyal/DSA Sheet by Arsh (45 Days Plan).xlsx
+++ b/Arsh-Goyal/DSA Sheet by Arsh (45 Days Plan).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="330">
   <si>
     <t>#CrackYourInternship Challenge</t>
   </si>
@@ -1517,8 +1517,8 @@
   </sheetPr>
   <dimension ref="A1:I340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E165" sqref="E165"/>
+    <sheetView tabSelected="1" topLeftCell="A167" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B198" sqref="B198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3373,6 +3373,9 @@
       <c r="B164" s="10" t="s">
         <v>156</v>
       </c>
+      <c r="C164" s="23" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="165" spans="1:6" ht="13.8">
       <c r="A165" s="5" t="s">
@@ -3381,6 +3384,9 @@
       <c r="B165" s="10" t="s">
         <v>157</v>
       </c>
+      <c r="C165" s="23" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="166" spans="1:6" ht="13.8">
       <c r="A166" s="5" t="s">
@@ -3389,6 +3395,9 @@
       <c r="B166" s="10" t="s">
         <v>158</v>
       </c>
+      <c r="C166" s="23" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="167" spans="1:6" ht="13.8">
       <c r="A167" s="5" t="s">
@@ -3396,6 +3405,9 @@
       </c>
       <c r="B167" s="7" t="s">
         <v>159</v>
+      </c>
+      <c r="C167" s="23" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="13.8">

--- a/Arsh-Goyal/DSA Sheet by Arsh (45 Days Plan).xlsx
+++ b/Arsh-Goyal/DSA Sheet by Arsh (45 Days Plan).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="330">
   <si>
     <t>#CrackYourInternship Challenge</t>
   </si>
@@ -1517,8 +1517,8 @@
   </sheetPr>
   <dimension ref="A1:I340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B198" sqref="B198"/>
+    <sheetView tabSelected="1" topLeftCell="A171" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C193" sqref="C193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3289,7 +3289,7 @@
       <c r="A158" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B158" s="10" t="s">
+      <c r="B158" s="24" t="s">
         <v>150</v>
       </c>
       <c r="C158" s="23" t="s">
@@ -3417,6 +3417,9 @@
       <c r="B168" s="18" t="s">
         <v>160</v>
       </c>
+      <c r="C168" s="23" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="169" spans="1:6" ht="13.8">
       <c r="A169" s="5" t="s">
@@ -3425,6 +3428,9 @@
       <c r="B169" s="7" t="s">
         <v>161</v>
       </c>
+      <c r="C169" s="23" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="170" spans="1:6" ht="13.8">
       <c r="A170" s="5" t="s">
@@ -3433,6 +3439,9 @@
       <c r="B170" s="10" t="s">
         <v>162</v>
       </c>
+      <c r="C170" s="23" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="171" spans="1:6" ht="13.8">
       <c r="A171" s="5" t="s">
@@ -3441,6 +3450,9 @@
       <c r="B171" s="10" t="s">
         <v>163</v>
       </c>
+      <c r="C171" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="D171" s="5" t="s">
         <v>10</v>
       </c>
@@ -3452,6 +3464,9 @@
       <c r="B172" s="10" t="s">
         <v>164</v>
       </c>
+      <c r="C172" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="D172" s="5" t="s">
         <v>10</v>
       </c>
@@ -3460,8 +3475,11 @@
       <c r="A173" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B173" s="10" t="s">
+      <c r="B173" s="24" t="s">
         <v>165</v>
+      </c>
+      <c r="C173" s="23" t="s">
+        <v>314</v>
       </c>
       <c r="D173" s="5" t="s">
         <v>10</v>
@@ -3474,6 +3492,9 @@
       <c r="B174" s="10" t="s">
         <v>166</v>
       </c>
+      <c r="C174" s="23" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="175" spans="1:6" ht="13.8">
       <c r="A175" s="5" t="s">
@@ -3482,6 +3503,9 @@
       <c r="B175" s="10" t="s">
         <v>167</v>
       </c>
+      <c r="C175" s="23" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="176" spans="1:6" ht="13.8">
       <c r="A176" s="5" t="s">
@@ -3490,6 +3514,9 @@
       <c r="B176" s="10" t="s">
         <v>168</v>
       </c>
+      <c r="C176" s="23" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="177" spans="1:6" ht="13.8">
       <c r="A177" s="5" t="s">
@@ -3498,6 +3525,9 @@
       <c r="B177" s="10" t="s">
         <v>169</v>
       </c>
+      <c r="C177" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="F177" s="26" t="s">
         <v>10</v>
       </c>
@@ -3506,8 +3536,11 @@
       <c r="A178" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B178" s="10" t="s">
+      <c r="B178" s="24" t="s">
         <v>170</v>
+      </c>
+      <c r="C178" s="23" t="s">
+        <v>314</v>
       </c>
       <c r="D178" s="5" t="s">
         <v>10</v>
@@ -3545,7 +3578,7 @@
       <c r="A181" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B181" s="10" t="s">
+      <c r="B181" s="24" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3594,6 +3627,9 @@
       <c r="B186" s="10" t="s">
         <v>178</v>
       </c>
+      <c r="C186" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="F186" s="26" t="s">
         <v>10</v>
       </c>
@@ -3635,6 +3671,9 @@
       <c r="B190" s="16" t="s">
         <v>182</v>
       </c>
+      <c r="C190" s="23" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="191" spans="1:6" ht="13.8">
       <c r="A191" s="5" t="s">
@@ -3643,6 +3682,9 @@
       <c r="B191" s="10" t="s">
         <v>183</v>
       </c>
+      <c r="C191" s="23" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="192" spans="1:6" ht="13.8">
       <c r="A192" s="5" t="s">
@@ -3651,6 +3693,9 @@
       <c r="B192" s="10" t="s">
         <v>184</v>
       </c>
+      <c r="C192" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="D192" s="5" t="s">
         <v>10</v>
       </c>
@@ -3659,8 +3704,11 @@
       <c r="A193" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B193" s="10" t="s">
+      <c r="B193" s="24" t="s">
         <v>185</v>
+      </c>
+      <c r="C193" s="23" t="s">
+        <v>314</v>
       </c>
       <c r="D193" s="5" t="s">
         <v>10</v>
@@ -3717,7 +3765,7 @@
       <c r="A198" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B198" s="7" t="s">
+      <c r="B198" s="24" t="s">
         <v>190</v>
       </c>
       <c r="F198" s="26" t="s">
@@ -3796,6 +3844,9 @@
       <c r="B207" s="7" t="s">
         <v>197</v>
       </c>
+      <c r="C207" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="F207" s="26" t="s">
         <v>10</v>
       </c>
@@ -3817,6 +3868,9 @@
       </c>
       <c r="B209" s="7" t="s">
         <v>199</v>
+      </c>
+      <c r="C209" s="23" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="13.8">

--- a/Arsh-Goyal/DSA Sheet by Arsh (45 Days Plan).xlsx
+++ b/Arsh-Goyal/DSA Sheet by Arsh (45 Days Plan).xlsx
@@ -10,11 +10,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="330">
   <si>
     <t>#CrackYourInternship Challenge</t>
   </si>
@@ -1517,8 +1518,8 @@
   </sheetPr>
   <dimension ref="A1:I340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C193" sqref="C193"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1877,6 +1878,9 @@
       <c r="B35" s="7" t="s">
         <v>41</v>
       </c>
+      <c r="C35" s="23" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="36" spans="1:8" ht="13.8">
       <c r="A36" s="5" t="s">
@@ -3556,6 +3560,9 @@
       <c r="B179" s="10" t="s">
         <v>171</v>
       </c>
+      <c r="C179" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="D179" s="5" t="s">
         <v>10</v>
       </c>
@@ -3570,6 +3577,9 @@
       <c r="B180" s="10" t="s">
         <v>172</v>
       </c>
+      <c r="C180" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="D180" s="5" t="s">
         <v>10</v>
       </c>
@@ -3581,6 +3591,9 @@
       <c r="B181" s="24" t="s">
         <v>173</v>
       </c>
+      <c r="C181" s="23" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="182" spans="1:6" ht="13.8">
       <c r="A182" s="5" t="s">
@@ -3589,6 +3602,9 @@
       <c r="B182" s="10" t="s">
         <v>174</v>
       </c>
+      <c r="C182" s="23" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="183" spans="1:6" ht="13.8">
       <c r="A183" s="5" t="s">
@@ -3597,6 +3613,9 @@
       <c r="B183" s="10" t="s">
         <v>175</v>
       </c>
+      <c r="C183" s="23" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="184" spans="1:6" ht="13.8">
       <c r="A184" s="5" t="s">
@@ -3605,6 +3624,9 @@
       <c r="B184" s="10" t="s">
         <v>176</v>
       </c>
+      <c r="C184" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="F184" s="26" t="s">
         <v>10</v>
       </c>
@@ -3616,6 +3638,9 @@
       <c r="B185" s="16" t="s">
         <v>177</v>
       </c>
+      <c r="C185" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="F185" s="26" t="s">
         <v>10</v>
       </c>
@@ -3641,6 +3666,9 @@
       <c r="B187" s="10" t="s">
         <v>179</v>
       </c>
+      <c r="C187" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="E187" s="31" t="s">
         <v>10</v>
       </c>
@@ -3652,6 +3680,9 @@
       <c r="B188" s="7" t="s">
         <v>180</v>
       </c>
+      <c r="C188" s="23" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="189" spans="1:6" ht="13.8">
       <c r="A189" s="5" t="s">
@@ -3660,6 +3691,9 @@
       <c r="B189" s="19" t="s">
         <v>181</v>
       </c>
+      <c r="C189" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="D189" s="5" t="s">
         <v>10</v>
       </c>
@@ -3724,6 +3758,9 @@
       <c r="B194" s="10" t="s">
         <v>186</v>
       </c>
+      <c r="C194" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="D194" s="5" t="s">
         <v>10</v>
       </c>
@@ -3741,6 +3778,9 @@
       <c r="B195" s="16" t="s">
         <v>187</v>
       </c>
+      <c r="C195" s="23" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="196" spans="1:8" ht="13.8">
       <c r="A196" s="5" t="s">
@@ -3749,6 +3789,9 @@
       <c r="B196" s="16" t="s">
         <v>188</v>
       </c>
+      <c r="C196" s="23" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="197" spans="1:8" ht="13.8">
       <c r="A197" s="5" t="s">
@@ -3757,6 +3800,9 @@
       <c r="B197" s="7" t="s">
         <v>189</v>
       </c>
+      <c r="C197" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="F197" s="26" t="s">
         <v>10</v>
       </c>
@@ -3768,6 +3814,9 @@
       <c r="B198" s="24" t="s">
         <v>190</v>
       </c>
+      <c r="C198" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="F198" s="26" t="s">
         <v>10</v>
       </c>
@@ -3778,6 +3827,9 @@
       </c>
       <c r="B199" s="7" t="s">
         <v>191</v>
+      </c>
+      <c r="C199" s="23" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="13.8">

--- a/Arsh-Goyal/DSA Sheet by Arsh (45 Days Plan).xlsx
+++ b/Arsh-Goyal/DSA Sheet by Arsh (45 Days Plan).xlsx
@@ -10,12 +10,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="330">
   <si>
     <t>#CrackYourInternship Challenge</t>
   </si>
@@ -1029,10 +1028,10 @@
     <t>Arrays // thurs 21st</t>
   </si>
   <si>
-    <t>Strings // thur fri 22nd 23rd</t>
-  </si>
-  <si>
     <t xml:space="preserve">Matrix Problems // complete when free , no specific day alloted </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strings </t>
   </si>
 </sst>
 </file>
@@ -1518,8 +1517,8 @@
   </sheetPr>
   <dimension ref="A1:I340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1867,7 +1866,7 @@
     </row>
     <row r="34" spans="1:8" ht="13.8">
       <c r="B34" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F34" s="26"/>
     </row>
@@ -1886,8 +1885,11 @@
       <c r="A36" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="24" t="s">
         <v>42</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>314</v>
       </c>
       <c r="H36" s="28" t="s">
         <v>10</v>
@@ -1900,6 +1902,9 @@
       <c r="B37" s="7" t="s">
         <v>43</v>
       </c>
+      <c r="C37" s="23" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="38" spans="1:8" ht="13.8">
       <c r="A38" s="5" t="s">
@@ -1908,6 +1913,9 @@
       <c r="B38" s="7" t="s">
         <v>44</v>
       </c>
+      <c r="C38" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="F38" s="26" t="s">
         <v>10</v>
       </c>
@@ -1918,6 +1926,9 @@
       </c>
       <c r="B39" s="8" t="s">
         <v>45</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="13.8">
@@ -1927,6 +1938,9 @@
       <c r="B40" s="10" t="s">
         <v>47</v>
       </c>
+      <c r="C40" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="H40" s="28" t="s">
         <v>10</v>
       </c>
@@ -1938,6 +1952,9 @@
       <c r="B41" s="10" t="s">
         <v>48</v>
       </c>
+      <c r="C41" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="H41" s="28" t="s">
         <v>10</v>
       </c>
@@ -1949,6 +1966,9 @@
       <c r="B42" s="10" t="s">
         <v>49</v>
       </c>
+      <c r="C42" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="F42" s="26" t="s">
         <v>10</v>
       </c>
@@ -1963,6 +1983,9 @@
       <c r="B43" s="7" t="s">
         <v>50</v>
       </c>
+      <c r="C43" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="F43" s="26" t="s">
         <v>10</v>
       </c>
@@ -1974,6 +1997,9 @@
       <c r="B44" s="10" t="s">
         <v>51</v>
       </c>
+      <c r="C44" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="F44" s="26" t="s">
         <v>10</v>
       </c>
@@ -1985,6 +2011,9 @@
       <c r="B45" s="7" t="s">
         <v>52</v>
       </c>
+      <c r="C45" s="23" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="46" spans="1:8" ht="13.8">
       <c r="A46" s="5" t="s">
@@ -1993,6 +2022,9 @@
       <c r="B46" s="10" t="s">
         <v>53</v>
       </c>
+      <c r="C46" s="23" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="47" spans="1:8" ht="13.8">
       <c r="A47" s="5" t="s">
@@ -2001,6 +2033,9 @@
       <c r="B47" s="7" t="s">
         <v>54</v>
       </c>
+      <c r="C47" s="23" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="48" spans="1:8" ht="13.8">
       <c r="A48" s="5" t="s">
@@ -2074,7 +2109,7 @@
     </row>
     <row r="56" spans="1:8" ht="13.8">
       <c r="B56" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H56" s="28" t="s">
         <v>10</v>

--- a/Arsh-Goyal/DSA Sheet by Arsh (45 Days Plan).xlsx
+++ b/Arsh-Goyal/DSA Sheet by Arsh (45 Days Plan).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="331">
   <si>
     <t>#CrackYourInternship Challenge</t>
   </si>
@@ -1032,6 +1032,9 @@
   </si>
   <si>
     <t xml:space="preserve">Strings </t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -1517,8 +1520,8 @@
   </sheetPr>
   <dimension ref="A1:I340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C205" sqref="C205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2044,6 +2047,9 @@
       <c r="B48" s="10" t="s">
         <v>55</v>
       </c>
+      <c r="C48" s="23" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="49" spans="1:8" ht="13.8">
       <c r="A49" s="5" t="s">
@@ -2052,6 +2058,9 @@
       <c r="B49" s="10" t="s">
         <v>56</v>
       </c>
+      <c r="C49" s="23" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="50" spans="1:8" ht="13.8">
       <c r="A50" s="5" t="s">
@@ -2060,6 +2069,9 @@
       <c r="B50" s="10" t="s">
         <v>57</v>
       </c>
+      <c r="C50" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="E50" s="29" t="s">
         <v>10</v>
       </c>
@@ -2071,6 +2083,9 @@
       <c r="B51" s="10" t="s">
         <v>58</v>
       </c>
+      <c r="C51" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="E51" s="29" t="s">
         <v>10</v>
       </c>
@@ -2082,6 +2097,9 @@
       <c r="B52" s="10" t="s">
         <v>59</v>
       </c>
+      <c r="C52" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="E52" s="29" t="s">
         <v>10</v>
       </c>
@@ -2093,13 +2111,19 @@
       <c r="B53" s="7" t="s">
         <v>60</v>
       </c>
+      <c r="C53" s="23" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="54" spans="1:8" ht="13.8">
       <c r="A54" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="24" t="s">
         <v>61</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="13.8">
@@ -3879,6 +3903,9 @@
       <c r="B202" s="7" t="s">
         <v>192</v>
       </c>
+      <c r="C202" s="23" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="203" spans="1:8" ht="13.8">
       <c r="A203" s="5" t="s">
@@ -3887,6 +3914,9 @@
       <c r="B203" s="7" t="s">
         <v>193</v>
       </c>
+      <c r="C203" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="F203" s="26" t="s">
         <v>10</v>
       </c>
@@ -3898,6 +3928,9 @@
       <c r="B204" s="7" t="s">
         <v>194</v>
       </c>
+      <c r="C204" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="E204" s="29" t="s">
         <v>10</v>
       </c>
@@ -3908,6 +3941,9 @@
       </c>
       <c r="B205" s="7" t="s">
         <v>195</v>
+      </c>
+      <c r="C205" s="23" t="s">
+        <v>314</v>
       </c>
       <c r="E205" s="29" t="s">
         <v>10</v>

--- a/Arsh-Goyal/DSA Sheet by Arsh (45 Days Plan).xlsx
+++ b/Arsh-Goyal/DSA Sheet by Arsh (45 Days Plan).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="331">
   <si>
     <t>#CrackYourInternship Challenge</t>
   </si>
@@ -1520,8 +1520,8 @@
   </sheetPr>
   <dimension ref="A1:I340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C205" sqref="C205"/>
+    <sheetView tabSelected="1" topLeftCell="A197" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C212" sqref="C212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3956,6 +3956,9 @@
       <c r="B206" s="7" t="s">
         <v>196</v>
       </c>
+      <c r="C206" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="H206" s="28" t="s">
         <v>10</v>
       </c>
@@ -3981,6 +3984,9 @@
       <c r="B208" s="7" t="s">
         <v>198</v>
       </c>
+      <c r="C208" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="D208" s="5" t="s">
         <v>10</v>
       </c>
@@ -4003,6 +4009,9 @@
       <c r="B210" s="8" t="s">
         <v>200</v>
       </c>
+      <c r="C210" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="H210" s="28" t="s">
         <v>10</v>
       </c>
@@ -4014,6 +4023,9 @@
       <c r="B211" s="8" t="s">
         <v>201</v>
       </c>
+      <c r="C211" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="E211" s="29" t="s">
         <v>10</v>
       </c>
@@ -4027,6 +4039,9 @@
       </c>
       <c r="B212" s="7" t="s">
         <v>202</v>
+      </c>
+      <c r="C212" s="23" t="s">
+        <v>314</v>
       </c>
       <c r="E212" s="29" t="s">
         <v>10</v>

--- a/Arsh-Goyal/DSA Sheet by Arsh (45 Days Plan).xlsx
+++ b/Arsh-Goyal/DSA Sheet by Arsh (45 Days Plan).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="331">
   <si>
     <t>#CrackYourInternship Challenge</t>
   </si>
@@ -1521,7 +1521,7 @@
   <dimension ref="A1:I340"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A197" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C212" sqref="C212"/>
+      <selection activeCell="C214" sqref="C214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4054,6 +4054,9 @@
       <c r="B213" s="7" t="s">
         <v>203</v>
       </c>
+      <c r="C213" s="23" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="214" spans="1:8" ht="13.8">
       <c r="A214" s="5" t="s">
@@ -4061,6 +4064,9 @@
       </c>
       <c r="B214" s="7" t="s">
         <v>204</v>
+      </c>
+      <c r="C214" s="23" t="s">
+        <v>314</v>
       </c>
       <c r="F214" s="26" t="s">
         <v>10</v>

--- a/Arsh-Goyal/DSA Sheet by Arsh (45 Days Plan).xlsx
+++ b/Arsh-Goyal/DSA Sheet by Arsh (45 Days Plan).xlsx
@@ -10,11 +10,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="334">
   <si>
     <t>#CrackYourInternship Challenge</t>
   </si>
@@ -1035,6 +1036,15 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>PAID</t>
+  </si>
+  <si>
+    <t>Partial</t>
+  </si>
+  <si>
+    <t>partial</t>
   </si>
 </sst>
 </file>
@@ -1520,8 +1530,8 @@
   </sheetPr>
   <dimension ref="A1:I340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C214" sqref="C214"/>
+    <sheetView tabSelected="1" topLeftCell="A270" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B276" sqref="B276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4079,6 +4089,9 @@
       <c r="B215" s="7" t="s">
         <v>205</v>
       </c>
+      <c r="C215" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="D215" s="5" t="s">
         <v>10</v>
       </c>
@@ -4090,6 +4103,9 @@
       <c r="B216" s="7" t="s">
         <v>206</v>
       </c>
+      <c r="C216" s="23" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="217" spans="1:8" ht="13.8">
       <c r="A217" s="5" t="s">
@@ -4098,6 +4114,9 @@
       <c r="B217" s="7" t="s">
         <v>207</v>
       </c>
+      <c r="C217" s="23" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="218" spans="1:8" ht="13.8">
       <c r="A218" s="5" t="s">
@@ -4106,6 +4125,9 @@
       <c r="B218" s="7" t="s">
         <v>208</v>
       </c>
+      <c r="C218" s="23" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="219" spans="1:8" ht="13.8">
       <c r="A219" s="5" t="s">
@@ -4114,6 +4136,9 @@
       <c r="B219" s="7" t="s">
         <v>209</v>
       </c>
+      <c r="C219" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="F219" s="26" t="s">
         <v>10</v>
       </c>
@@ -4125,6 +4150,9 @@
       <c r="B220" s="7" t="s">
         <v>210</v>
       </c>
+      <c r="C220" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="E220" s="29" t="s">
         <v>10</v>
       </c>
@@ -4136,6 +4164,9 @@
       <c r="B221" s="7" t="s">
         <v>211</v>
       </c>
+      <c r="C221" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="D221" s="5" t="s">
         <v>10</v>
       </c>
@@ -4150,6 +4181,9 @@
       <c r="B222" s="7" t="s">
         <v>212</v>
       </c>
+      <c r="C222" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="D222" s="5" t="s">
         <v>10</v>
       </c>
@@ -4161,6 +4195,9 @@
       <c r="B223" s="7" t="s">
         <v>213</v>
       </c>
+      <c r="C223" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="F223" s="26" t="s">
         <v>10</v>
       </c>
@@ -4169,8 +4206,11 @@
       <c r="A224" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B224" s="7" t="s">
+      <c r="B224" s="24" t="s">
         <v>214</v>
+      </c>
+      <c r="C224" s="23" t="s">
+        <v>314</v>
       </c>
       <c r="H224" s="28" t="s">
         <v>10</v>
@@ -4183,6 +4223,9 @@
       <c r="B225" s="7" t="s">
         <v>215</v>
       </c>
+      <c r="C225" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="E225" s="29" t="s">
         <v>10</v>
       </c>
@@ -4194,6 +4237,9 @@
       <c r="B226" s="7" t="s">
         <v>216</v>
       </c>
+      <c r="C226" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="E226" s="29" t="s">
         <v>10</v>
       </c>
@@ -4205,6 +4251,9 @@
       <c r="B227" s="7" t="s">
         <v>217</v>
       </c>
+      <c r="C227" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="F227" s="26" t="s">
         <v>10</v>
       </c>
@@ -4216,6 +4265,9 @@
       <c r="B228" s="7" t="s">
         <v>218</v>
       </c>
+      <c r="C228" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="D228" s="5" t="s">
         <v>10</v>
       </c>
@@ -4227,6 +4279,9 @@
       <c r="B229" s="8" t="s">
         <v>219</v>
       </c>
+      <c r="C229" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="D229" s="5" t="s">
         <v>10</v>
       </c>
@@ -4238,6 +4293,9 @@
       <c r="B230" s="8" t="s">
         <v>220</v>
       </c>
+      <c r="C230" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="D230" s="5" t="s">
         <v>10</v>
       </c>
@@ -4249,6 +4307,9 @@
       <c r="B231" s="8" t="s">
         <v>221</v>
       </c>
+      <c r="C231" s="23" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="232" spans="1:8" ht="13.8">
       <c r="A232" s="5" t="s">
@@ -4257,6 +4318,9 @@
       <c r="B232" s="8" t="s">
         <v>222</v>
       </c>
+      <c r="C232" s="23" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="233" spans="1:8" ht="13.8">
       <c r="A233" s="5" t="s">
@@ -4265,6 +4329,9 @@
       <c r="B233" s="7" t="s">
         <v>223</v>
       </c>
+      <c r="C233" s="23" t="s">
+        <v>331</v>
+      </c>
       <c r="H233" s="28" t="s">
         <v>10</v>
       </c>
@@ -4276,6 +4343,9 @@
       <c r="B234" s="7" t="s">
         <v>224</v>
       </c>
+      <c r="C234" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="F234" s="26" t="s">
         <v>10</v>
       </c>
@@ -4287,6 +4357,9 @@
       <c r="B235" s="7" t="s">
         <v>225</v>
       </c>
+      <c r="C235" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="E235" s="29" t="s">
         <v>10</v>
       </c>
@@ -4298,6 +4371,9 @@
       <c r="B236" s="7" t="s">
         <v>226</v>
       </c>
+      <c r="C236" s="23" t="s">
+        <v>332</v>
+      </c>
       <c r="E236" s="29" t="s">
         <v>10</v>
       </c>
@@ -4309,6 +4385,9 @@
       <c r="B237" s="7" t="s">
         <v>227</v>
       </c>
+      <c r="C237" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="F237" s="26" t="s">
         <v>10</v>
       </c>
@@ -4319,6 +4398,9 @@
       </c>
       <c r="B238" s="7" t="s">
         <v>228</v>
+      </c>
+      <c r="C238" s="23" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="13.8">
@@ -4569,8 +4651,11 @@
       <c r="A266" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B266" s="7" t="s">
+      <c r="B266" s="24" t="s">
         <v>250</v>
+      </c>
+      <c r="C266" s="23" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="267" spans="1:8" ht="13.8">
@@ -4580,6 +4665,9 @@
       <c r="B267" s="7" t="s">
         <v>251</v>
       </c>
+      <c r="C267" s="23" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="268" spans="1:8" ht="13.8">
       <c r="A268" s="5" t="s">
@@ -4588,6 +4676,9 @@
       <c r="B268" s="7" t="s">
         <v>252</v>
       </c>
+      <c r="C268" s="23" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="269" spans="1:8" ht="13.8">
       <c r="A269" s="5" t="s">
@@ -4596,6 +4687,9 @@
       <c r="B269" s="8" t="s">
         <v>253</v>
       </c>
+      <c r="C269" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="F269" s="26" t="s">
         <v>10</v>
       </c>
@@ -4607,6 +4701,9 @@
       <c r="B270" s="10" t="s">
         <v>254</v>
       </c>
+      <c r="C270" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="D270" s="5" t="s">
         <v>10</v>
       </c>
@@ -4621,6 +4718,9 @@
       <c r="B271" s="7" t="s">
         <v>255</v>
       </c>
+      <c r="C271" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="D271" s="5" t="s">
         <v>10</v>
       </c>
@@ -4635,6 +4735,9 @@
       <c r="B272" s="10" t="s">
         <v>256</v>
       </c>
+      <c r="C272" s="23" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="273" spans="1:8" ht="13.8">
       <c r="A273" s="5" t="s">
@@ -4642,6 +4745,9 @@
       </c>
       <c r="B273" s="7" t="s">
         <v>257</v>
+      </c>
+      <c r="C273" s="23" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="274" spans="1:8" ht="13.8">

--- a/Arsh-Goyal/DSA Sheet by Arsh (45 Days Plan).xlsx
+++ b/Arsh-Goyal/DSA Sheet by Arsh (45 Days Plan).xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desktop\DSA\Arsh-Goyal\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="132" yWindow="600" windowWidth="22716" windowHeight="10788"/>
   </bookViews>
@@ -10,12 +15,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="334">
   <si>
     <t>#CrackYourInternship Challenge</t>
   </si>
@@ -1050,7 +1054,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="23">
     <font>
       <sz val="10"/>
@@ -1323,6 +1327,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1530,8 +1537,8 @@
   </sheetPr>
   <dimension ref="A1:I340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A270" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B276" sqref="B276"/>
+    <sheetView tabSelected="1" topLeftCell="A267" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C288" sqref="C288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4757,6 +4764,9 @@
       <c r="B274" s="7" t="s">
         <v>258</v>
       </c>
+      <c r="C274" s="23" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="275" spans="1:8" ht="13.8">
       <c r="A275" s="5" t="s">
@@ -4765,6 +4775,9 @@
       <c r="B275" s="7" t="s">
         <v>259</v>
       </c>
+      <c r="C275" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="E275" s="29" t="s">
         <v>10</v>
       </c>
@@ -4779,6 +4792,9 @@
       <c r="B276" s="7" t="s">
         <v>260</v>
       </c>
+      <c r="C276" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="E276" s="29" t="s">
         <v>10</v>
       </c>
@@ -4793,6 +4809,9 @@
       <c r="B277" s="10" t="s">
         <v>261</v>
       </c>
+      <c r="C277" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="D277" s="5" t="s">
         <v>10</v>
       </c>
@@ -4807,6 +4826,9 @@
       <c r="B278" s="7" t="s">
         <v>262</v>
       </c>
+      <c r="C278" s="23" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="279" spans="1:8" ht="13.8">
       <c r="A279" s="5" t="s">
@@ -4815,6 +4837,9 @@
       <c r="B279" s="10" t="s">
         <v>263</v>
       </c>
+      <c r="C279" s="23" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="280" spans="1:8" ht="13.8">
       <c r="A280" s="5" t="s">
@@ -4823,6 +4848,9 @@
       <c r="B280" s="7" t="s">
         <v>264</v>
       </c>
+      <c r="C280" s="23" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="281" spans="1:8" ht="13.8">
       <c r="A281" s="5" t="s">
@@ -4831,6 +4859,9 @@
       <c r="B281" s="7" t="s">
         <v>265</v>
       </c>
+      <c r="C281" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="D281" s="5" t="s">
         <v>10</v>
       </c>
@@ -4845,6 +4876,9 @@
       <c r="B282" s="7" t="s">
         <v>266</v>
       </c>
+      <c r="C282" s="23" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="283" spans="1:8" ht="13.8">
       <c r="A283" s="5" t="s">
@@ -4853,6 +4887,9 @@
       <c r="B283" s="7" t="s">
         <v>267</v>
       </c>
+      <c r="C283" s="23" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="284" spans="1:8" ht="13.8">
       <c r="A284" s="5" t="s">
@@ -4861,6 +4898,9 @@
       <c r="B284" s="10" t="s">
         <v>268</v>
       </c>
+      <c r="C284" s="23" t="s">
+        <v>314</v>
+      </c>
       <c r="E284" s="29" t="s">
         <v>10</v>
       </c>
@@ -4875,6 +4915,9 @@
       <c r="B285" s="7" t="s">
         <v>269</v>
       </c>
+      <c r="C285" s="23" t="s">
+        <v>330</v>
+      </c>
       <c r="E285" s="29" t="s">
         <v>10</v>
       </c>
@@ -4888,6 +4931,9 @@
       </c>
       <c r="B286" s="10" t="s">
         <v>270</v>
+      </c>
+      <c r="C286" s="23" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="287" spans="1:8" ht="13.8">
